--- a/data/authentication.xlsx
+++ b/data/authentication.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>Cosby</t>
-  </si>
-  <si>
-    <t>jim</t>
-  </si>
-  <si>
-    <t>Rogers</t>
   </si>
 </sst>
 </file>
@@ -345,13 +339,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -369,14 +363,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/authentication.xlsx
+++ b/data/authentication.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Desktop\EZDegree\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
   <si>
     <t>tim</t>
@@ -31,20 +42,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,15 +70,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -334,20 +353,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -355,7 +370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -363,7 +378,15 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>